--- a/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>77,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>83,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>84,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,21; 87,37</t>
+          <t>78,43; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,11; 100,0</t>
+          <t>68,53; 92,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,64; 95,85</t>
+          <t>76,25; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,45; 89,33</t>
+          <t>53,15; 94,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,17; 83,62</t>
+          <t>66,71; 93,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,05; 90,25</t>
+          <t>61,68; 95,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>60,74; 85,29</t>
+          <t>77,13; 94,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,05; 89,39</t>
+          <t>72,66; 91,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,38; 89,86</t>
+          <t>79,72; 96,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77,27%</t>
+          <t>75,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>74,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>81,55%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,43; 100,0</t>
+          <t>57,21; 87,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,53; 92,52</t>
+          <t>85,11; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>76,25; 100,0</t>
+          <t>63,64; 95,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,15; 94,14</t>
+          <t>53,45; 89,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>66,71; 93,86</t>
+          <t>56,17; 83,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,68; 95,46</t>
+          <t>63,05; 90,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>77,13; 94,36</t>
+          <t>60,74; 85,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,66; 91,23</t>
+          <t>70,05; 89,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,72; 96,35</t>
+          <t>70,38; 89,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>87,01%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>96,86%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,94; 100</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,88; 93,99</t>
+          <t>77,68; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,26; 100,0</t>
+          <t>66,43; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>70,37; 100,0</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,55; 95,7</t>
+          <t>82,22; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,25; 96,32</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,57; 100,0</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77,96; 93,06</t>
+          <t>85,28; 98,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,31; 96,61</t>
+          <t>81,54; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>79,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,27%</t>
+          <t>74,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,67%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>78,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>85,59%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,43; 100,0</t>
+          <t>82,28; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,53; 92,52</t>
+          <t>63,04; 90,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,25; 100,0</t>
+          <t>80,98; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,15; 94,14</t>
+          <t>52,01; 88,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,71; 93,86</t>
+          <t>55,42; 89,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,68; 95,46</t>
+          <t>59,22; 88,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,13; 94,36</t>
+          <t>76,16; 94,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,66; 91,23</t>
+          <t>66,19; 86,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,72; 96,35</t>
+          <t>74,21; 92,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>79,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>81,55%</t>
+          <t>87,75%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,21; 87,37</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,11; 100,0</t>
+          <t>68,72; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,64; 95,85</t>
+          <t>63,6; 95,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>53,45; 89,33</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,17; 83,62</t>
+          <t>57,4; 92,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,05; 90,25</t>
+          <t>71,25; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,74; 85,29</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,05; 89,39</t>
+          <t>70,58; 93,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,38; 89,86</t>
+          <t>74,43; 95,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>65,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,34%</t>
+          <t>64,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>85,34%</t>
+          <t>64,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>79,89%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,33; 94,24</t>
+          <t>43,49; 82,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,6; 92,79</t>
+          <t>73,73; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,35; 96,15</t>
+          <t>61,97; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>68,76; 88,59</t>
+          <t>41,58; 83,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,45; 87,43</t>
+          <t>47,38; 84,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,84; 90,06</t>
+          <t>54,49; 89,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,8; 90,46</t>
+          <t>49,77; 79,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,77; 88,87</t>
+          <t>65,2; 90,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,04; 91,57</t>
+          <t>64,2; 90,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>87,48%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91,01%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>80,9%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>83,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>85,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>86,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80,91; 94,39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80,61; 93,52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82,27; 96,21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67,94; 88,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73,27; 87,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>74,04; 89,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78,47; 90,15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>78,0; 88,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80,39; 91,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,68; 100,0</t>
+          <t>76,47; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,43; 100,0</t>
+          <t>70,75; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,22; 100,0</t>
+          <t>81,68; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,28; 98,05</t>
+          <t>85,78; 98,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,54; 100,0</t>
+          <t>84,47; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,28; 100,0</t>
+          <t>82,08; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,04; 90,51</t>
+          <t>64,45; 89,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,98; 100,0</t>
+          <t>85,07; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,01; 88,68</t>
+          <t>52,79; 88,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>55,42; 89,19</t>
+          <t>57,92; 89,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,22; 88,4</t>
+          <t>61,03; 90,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,16; 94,15</t>
+          <t>76,01; 93,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,19; 86,68</t>
+          <t>66,31; 86,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,21; 92,86</t>
+          <t>74,23; 93,17</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,72; 100,0</t>
+          <t>68,54; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,6; 95,31</t>
+          <t>61,46; 95,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>57,4; 92,21</t>
+          <t>60,75; 92,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,25; 100,0</t>
+          <t>63,52; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,58; 93,31</t>
+          <t>69,22; 92,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,43; 95,53</t>
+          <t>73,87; 95,37</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,49; 82,86</t>
+          <t>42,89; 82,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,73; 100,0</t>
+          <t>72,13; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,97; 100,0</t>
+          <t>67,55; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,58; 83,88</t>
+          <t>41,54; 83,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,38; 84,14</t>
+          <t>47,71; 84,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,49; 89,19</t>
+          <t>53,05; 88,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,77; 79,58</t>
+          <t>49,56; 77,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,2; 90,16</t>
+          <t>65,54; 88,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>64,2; 90,02</t>
+          <t>63,23; 89,99</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,91; 94,39</t>
+          <t>81,55; 94,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,61; 93,52</t>
+          <t>79,83; 92,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,27; 96,21</t>
+          <t>83,18; 96,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,94; 88,63</t>
+          <t>68,96; 89,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,27; 87,76</t>
+          <t>73,18; 87,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,04; 89,92</t>
+          <t>74,32; 90,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,47; 90,15</t>
+          <t>78,69; 90,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,0; 88,07</t>
+          <t>78,47; 88,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,39; 91,24</t>
+          <t>81,02; 91,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16B02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -637,27 +637,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>94,78%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>92,59%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>94,21%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>94,78%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,32 +685,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>85,49; 100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>83,84; 100,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>88,85; 100</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>90,01; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>76,47; 100,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>70,75; 100,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>85,49; 100</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,68; 100,0</t>
+          <t>74,25; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100</t>
+          <t>74,58; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,78; 98,5</t>
+          <t>85,74; 98,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,47; 100,0</t>
+          <t>86,44; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>74,71%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>75,78%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>77,74%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>94,69%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>79,58%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>96,5%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>74,71%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>75,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>77,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>82,08; 100,0</t>
+          <t>54,08; 91,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,45; 89,65</t>
+          <t>55,59; 88,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,07; 100,0</t>
+          <t>60,16; 90,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,79; 88,68</t>
+          <t>82,87; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,92; 89,94</t>
+          <t>65,35; 90,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,03; 90,42</t>
+          <t>81,28; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,01; 93,72</t>
+          <t>75,91; 94,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,31; 86,1</t>
+          <t>65,63; 86,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,23; 93,17</t>
+          <t>74,02; 93,12</t>
         </is>
       </c>
     </row>
@@ -857,27 +857,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>79,53%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>93,95%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>89,79%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>82,79%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>79,53%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>93,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,32 +905,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>81,26; 100</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>58,48; 92,16</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>70,19; 100,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>86,51; 100</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>68,54; 100,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>61,46; 95,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>81,26; 100</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>60,75; 92,21</t>
+          <t>72,9; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,52; 100,0</t>
+          <t>63,17; 95,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,22; 92,99</t>
+          <t>71,57; 93,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>73,87; 95,37</t>
+          <t>74,16; 95,24</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>64,6%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>68,09%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>73,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>65,1%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>94,82%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>92,24%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>64,6%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>68,09%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>73,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,89; 82,66</t>
+          <t>39,9; 84,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,13; 100,0</t>
+          <t>47,71; 84,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,55; 100,0</t>
+          <t>53,61; 89,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,54; 83,92</t>
+          <t>43,49; 82,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,71; 84,15</t>
+          <t>78,82; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,05; 88,12</t>
+          <t>67,29; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,56; 77,4</t>
+          <t>48,7; 78,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,54; 88,81</t>
+          <t>65,01; 89,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,23; 89,99</t>
+          <t>63,95; 90,89</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>80,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80,9%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83,28%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>88,8%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>87,48%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>91,01%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>80,34%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>80,9%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>83,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,55; 94,59</t>
+          <t>68,76; 88,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,83; 92,88</t>
+          <t>72,45; 87,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>83,18; 96,07</t>
+          <t>73,84; 90,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,96; 89,68</t>
+          <t>80,33; 94,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,18; 87,11</t>
+          <t>79,6; 92,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,32; 90,14</t>
+          <t>82,35; 96,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,69; 90,51</t>
+          <t>78,8; 90,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,47; 88,34</t>
+          <t>77,77; 88,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>81,02; 91,44</t>
+          <t>81,04; 91,57</t>
         </is>
       </c>
     </row>
